--- a/lib/assets/escala.xlsx
+++ b/lib/assets/escala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Higor\Documents\aplicativos_flutter\cdrotas2\meuapp\lib\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D743A8-B7B1-4936-A4B3-23D1FA7720C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5582E61B-DA7E-4FF6-8F38-49FB7E06F4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>PDQ1F27</t>
   </si>
@@ -51,9 +51,6 @@
     <t>KXP8A46</t>
   </si>
   <si>
-    <t xml:space="preserve">RAFAEL DE SOUZA SILVA </t>
-  </si>
-  <si>
     <t>CAIO MARCELO DOS SANTOS LOPES</t>
   </si>
   <si>
@@ -309,30 +306,15 @@
     <t>RECARGA 4</t>
   </si>
   <si>
-    <t>BWT-8888</t>
-  </si>
-  <si>
     <t>BBA-5180</t>
   </si>
   <si>
-    <t>EJW8C89</t>
-  </si>
-  <si>
     <t>KXQ5H87</t>
   </si>
   <si>
     <t>ROSANIO VIEIRA DA SILVA</t>
   </si>
   <si>
-    <t>FRET. REGINALDO</t>
-  </si>
-  <si>
-    <t>FPP8F94</t>
-  </si>
-  <si>
-    <t>A RETIRAR</t>
-  </si>
-  <si>
     <t>EDSON JOSE PEREIRA TRIGO</t>
   </si>
   <si>
@@ -345,18 +327,6 @@
     <t xml:space="preserve">RICARDO ANTENOR DE OLIVEIRA </t>
   </si>
   <si>
-    <t>BRI-7951</t>
-  </si>
-  <si>
-    <t>BTS6G48</t>
-  </si>
-  <si>
-    <t>BTT9D44</t>
-  </si>
-  <si>
-    <t>BUS8G29</t>
-  </si>
-  <si>
     <t>BWE-4430</t>
   </si>
   <si>
@@ -366,79 +336,49 @@
     <t>DBC-9994</t>
   </si>
   <si>
-    <t>DKU0G65</t>
-  </si>
-  <si>
     <t>GVI0G66</t>
   </si>
   <si>
-    <t>PPF9B65</t>
-  </si>
-  <si>
-    <t>RECARGA 5</t>
-  </si>
-  <si>
-    <t>SAIDA FUTURA 1</t>
-  </si>
-  <si>
-    <t>SAIDA FUTURA 2</t>
-  </si>
-  <si>
-    <t>SAIDA FUTURA 3</t>
-  </si>
-  <si>
-    <t>SAIDA FUTURA 4</t>
-  </si>
-  <si>
-    <t>SAIDA FUTURA 5</t>
-  </si>
-  <si>
-    <t>SAIDA FUTURA 6</t>
-  </si>
-  <si>
-    <t>SAIDA FUTURA 7</t>
-  </si>
-  <si>
-    <t>SAIDA FUTURA 8</t>
-  </si>
-  <si>
-    <t>SAIDA FUTURA 9</t>
-  </si>
-  <si>
-    <t>SAIDA FUTURA 10</t>
-  </si>
-  <si>
-    <t>SAIDA FUTURA 11</t>
-  </si>
-  <si>
-    <t>SAIDA FUTURA 12</t>
-  </si>
-  <si>
-    <t>SAIDA FUTURA 13</t>
-  </si>
-  <si>
-    <t>SAIDA FUTURA 14</t>
-  </si>
-  <si>
-    <t>SAIDA FUTURA 15</t>
-  </si>
-  <si>
-    <t>SAIDA FUTURA 16</t>
-  </si>
-  <si>
-    <t>SAIDA FUTURA 17</t>
-  </si>
-  <si>
-    <t>SAIDA FUTURA 18</t>
-  </si>
-  <si>
-    <t>SAIDA FUTURA 19</t>
-  </si>
-  <si>
     <t>FRET. JOAQUIM SILVA AGUIAR</t>
   </si>
   <si>
-    <t>FRET. REINALDO</t>
+    <t xml:space="preserve">ADRIANO VITORINO SILVA </t>
+  </si>
+  <si>
+    <t>ALEXANDRE DONIZETE VIEIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>EJW-9508</t>
+  </si>
+  <si>
+    <t>CGZ8H15</t>
+  </si>
+  <si>
+    <t>RECARGA</t>
+  </si>
+  <si>
+    <t>BZR4F53</t>
+  </si>
+  <si>
+    <t>FRET. ADALBERTO</t>
+  </si>
+  <si>
+    <t>FRET. HELIO</t>
+  </si>
+  <si>
+    <t>FRET. JULIO - NOTURNA</t>
+  </si>
+  <si>
+    <t>FRET. MICHEL</t>
+  </si>
+  <si>
+    <t>FRET. REINALDO DEZIDERIO DE MEDEIROS</t>
+  </si>
+  <si>
+    <t>FRET. RONALDO CESAR BARBARO</t>
+  </si>
+  <si>
+    <t>FRET. RONDINELI</t>
   </si>
 </sst>
 </file>
@@ -449,7 +389,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -589,13 +529,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="13"/>
@@ -632,7 +565,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,7 +840,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -919,31 +852,30 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1504,10 +1436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.33203125" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -1518,793 +1450,641 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="13">
-        <v>10043349</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>97</v>
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9">
+        <v>10048114</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="14">
-        <v>10043270</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="12">
+        <v>10048128</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14">
-        <v>10042979</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="9">
+        <v>10048020</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="14">
-        <v>10043269</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="9">
+        <v>10047306</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="14">
-        <v>10043360</v>
+        <v>77</v>
+      </c>
+      <c r="B5" s="9">
+        <v>10048112</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="14">
-        <v>10043173</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="9">
+        <v>10048162</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="14">
-        <v>10043274</v>
+        <v>0</v>
+      </c>
+      <c r="B7" s="9">
+        <v>10048129</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="14">
-        <v>10043172</v>
+        <v>3</v>
+      </c>
+      <c r="B8" s="9">
+        <v>10048039</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="14">
-        <v>10043288</v>
+        <v>15</v>
+      </c>
+      <c r="B9" s="9">
+        <v>10048040</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="14">
-        <v>10043354</v>
+        <v>17</v>
+      </c>
+      <c r="B10" s="9">
+        <v>10048045</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="14">
-        <v>10043355</v>
+        <v>19</v>
+      </c>
+      <c r="B11" s="9">
+        <v>10048041</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="14">
-        <v>10043276</v>
+        <v>20</v>
+      </c>
+      <c r="B12" s="9">
+        <v>10048131</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="14">
-        <v>10043359</v>
+        <v>22</v>
+      </c>
+      <c r="B13" s="9">
+        <v>10048130</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="14">
-        <v>10043296</v>
+        <v>28</v>
+      </c>
+      <c r="B14" s="9">
+        <v>10048132</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="14">
-        <v>10042980</v>
+        <v>45</v>
+      </c>
+      <c r="B15" s="9">
+        <v>10048043</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="13">
-        <v>10042981</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>70</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="9">
+        <v>10047307</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="13">
-        <v>10042982</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>71</v>
+        <v>97</v>
+      </c>
+      <c r="B17" s="8">
+        <v>10047949</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="13">
-        <v>10043292</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>83</v>
+        <v>30</v>
+      </c>
+      <c r="B18" s="8">
+        <v>10048110</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="13">
-        <v>10043290</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>132</v>
+        <v>31</v>
+      </c>
+      <c r="B19" s="8">
+        <v>10047957</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="13">
-        <v>10043351</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>72</v>
+        <v>98</v>
+      </c>
+      <c r="B20" s="8">
+        <v>10048021</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="13">
-        <v>10043176</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>73</v>
+        <v>80</v>
+      </c>
+      <c r="B21" s="8">
+        <v>10048018</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="13">
-        <v>10043271</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>74</v>
+        <v>32</v>
+      </c>
+      <c r="B22" s="8">
+        <v>10047956</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="13">
-        <v>10042985</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>75</v>
+      <c r="A23" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="12">
+        <v>10047952</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="13">
-        <v>10042986</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>76</v>
+        <v>103</v>
+      </c>
+      <c r="B24" s="8">
+        <v>10048160</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="13">
-        <v>10043291</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>85</v>
+        <v>34</v>
+      </c>
+      <c r="B25" s="8">
+        <v>10048137</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="13">
-        <v>10042984</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>77</v>
+        <v>35</v>
+      </c>
+      <c r="B26" s="8">
+        <v>10048115</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="13">
-        <v>10043350</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>80</v>
+        <v>36</v>
+      </c>
+      <c r="B27" s="8">
+        <v>10048019</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="13">
-        <v>10042983</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="8">
+        <v>10048022</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="8">
+        <v>10047948</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="8">
+        <v>10048113</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="8">
+        <v>10048136</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="8">
+        <v>10043366</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="8">
+        <v>10048109</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="8">
+        <v>10043363</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="13">
-        <v>10043357</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="14">
-        <v>10043177</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="14">
-        <v>10043268</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="14">
-        <v>10043358</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="14">
-        <v>10043293</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="14">
-        <v>10043277</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="14">
-        <v>10043169</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>51</v>
+      <c r="B35" s="8">
+        <v>10048116</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="14">
-        <v>10042987</v>
+        <v>39</v>
+      </c>
+      <c r="B36" s="9">
+        <v>10048111</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="14">
-        <v>10043356</v>
+        <v>9</v>
+      </c>
+      <c r="B37" s="9">
+        <v>10047950</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" s="14">
-        <v>10043272</v>
+        <v>43</v>
+      </c>
+      <c r="B38" s="9">
+        <v>10047954</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="14">
-        <v>10043273</v>
+        <v>26</v>
+      </c>
+      <c r="B39" s="9">
+        <v>10048159</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="14">
-        <v>10043170</v>
+        <v>47</v>
+      </c>
+      <c r="B40" s="9">
+        <v>10048044</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="14">
-        <v>10043171</v>
+        <v>49</v>
+      </c>
+      <c r="B41" s="9">
+        <v>10048025</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" s="13">
-        <v>10043289</v>
-      </c>
-      <c r="C42" s="5" t="s">
+      <c r="A42" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="9">
+        <v>10048023</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="9">
+        <v>10047953</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="9">
+        <v>10047951</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="9">
+        <v>10048027</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="9">
+        <v>10048038</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="8">
+        <v>10048133</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="8">
+        <v>10048134</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="8">
+        <v>10048135</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43" s="13">
-        <v>10043295</v>
-      </c>
-      <c r="C43" s="5" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="8">
+        <v>10048158</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="13">
-        <v>10043297</v>
-      </c>
-      <c r="C44" s="5" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="8">
+        <v>10048161</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="13">
-        <v>10043348</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="13">
-        <v>10043352</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="14">
-        <v>10043168</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" s="14">
-        <v>10043294</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B49" s="14">
-        <v>10043275</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" s="14">
-        <v>10043174</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="14">
-        <v>10043175</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="14">
-        <v>10043353</v>
+        <v>60</v>
+      </c>
+      <c r="B52" s="9">
+        <v>10048024</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="9">
+        <v>10048026</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="9">
+        <v>10048042</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="9">
+        <v>10047305</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B53" s="13">
-        <v>10043361</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="9">
+        <v>10048108</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="13">
-        <v>10043362</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" s="13">
-        <v>10043363</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="13">
-        <v>10043364</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="9">
+        <v>10048117</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B57" s="13">
-        <v>10043365</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B58" s="13">
-        <v>10043366</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B59" s="13">
-        <v>10043367</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B60" s="13">
-        <v>10043528</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B61" s="13">
-        <v>10043529</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B62" s="13">
-        <v>10043530</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B63" s="13">
-        <v>10043531</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B64" s="13">
-        <v>10043532</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B65" s="13">
-        <v>10043533</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B66" s="13">
-        <v>10043534</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B67" s="13">
-        <v>10043535</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B68" s="13">
-        <v>10043536</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B69" s="13">
-        <v>10043537</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B70" s="13">
-        <v>10043548</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B71" s="13">
-        <v>10043549</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C4">
     <sortCondition ref="C1:C4"/>
   </sortState>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
